--- a/arrange.xlsx
+++ b/arrange.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tears\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruangong\edumanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BABC0F-00BA-42E8-AD2F-EE2CC3269510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC5459-A017-419B-87F1-4C5AA6FB702F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="744" windowWidth="20232" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="3576" windowWidth="18036" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
         <v>20011103</v>
       </c>
       <c r="B2">
-        <v>11004</v>
+        <v>10004</v>
       </c>
       <c r="C2">
         <v>20202</v>
@@ -484,7 +484,7 @@
         <v>20061101</v>
       </c>
       <c r="B3">
-        <v>11001</v>
+        <v>10001</v>
       </c>
       <c r="C3">
         <v>20202</v>
